--- a/biology/Botanique/Troène_des_haies/Troène_des_haies.xlsx
+++ b/biology/Botanique/Troène_des_haies/Troène_des_haies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne_des_haies</t>
+          <t>Troène_des_haies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Troène à feuilles ovales (Ligustrum ovalifolium) est une espèce de plantes dicotylédones de la famille des Oleaceae. Elle est parfois appelée « troène de Californie » bien qu'elle soit originaire du Japon et de Corée.
 Elle a été introduite en Europe en 1885 après avoir été introduite en Californie, d'où son nom vernaculaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne_des_haies</t>
+          <t>Troène_des_haies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste mesurant de 3 à 5 mètres. Ses feuilles semi-persistantes sont violacées en hiver. Ses fleurs blanches, odorantes sont réunies en grappes dressées en été. Il est très rustique et son développement est rapide.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne_des_haies</t>
+          <t>Troène_des_haies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Caractère envahissant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ligustrum ovalifolium est considérée comme une plante envahissante dans diverses régions où elle a été introduite, en particulier aux États-Unis[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ligustrum ovalifolium est considérée comme une plante envahissante dans diverses régions où elle a été introduite, en particulier aux États-Unis.
 </t>
         </is>
       </c>
